--- a/src/test/java/resources/search.xlsx
+++ b/src/test/java/resources/search.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>queries</t>
   </si>

--- a/src/test/java/resources/search.xlsx
+++ b/src/test/java/resources/search.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>queries</t>
   </si>
